--- a/1.DELIVERABLE/1.10 EFFORT_LOG/Week23/BSS_EffortLog_MinhDoan_Week23.xlsx
+++ b/1.DELIVERABLE/1.10 EFFORT_LOG/Week23/BSS_EffortLog_MinhDoan_Week23.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">EFFORT LOG </t>
   </si>
@@ -51,25 +51,13 @@
     <t>Training Technical</t>
   </si>
   <si>
-    <t>13/2/2017</t>
+    <t>Implement frontend News on ionic 2</t>
   </si>
   <si>
-    <t>Demo "View News" function</t>
+    <t>Implement "Edit categories" function on frontend</t>
   </si>
   <si>
-    <t>14/2/2017</t>
-  </si>
-  <si>
-    <t>Demo "Create Draft" function</t>
-  </si>
-  <si>
-    <t>Demo "Edit News" function</t>
-  </si>
-  <si>
-    <t>15/2/2017</t>
-  </si>
-  <si>
-    <t>WEEK: 20</t>
+    <t>WEEK: 23</t>
   </si>
 </sst>
 </file>
@@ -135,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -173,11 +161,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -199,13 +200,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -523,7 +531,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +539,7 @@
     <col min="1" max="2" width="8" style="3" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="48.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="3" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" style="3" customWidth="1"/>
@@ -542,14 +550,14 @@
     <row r="1" spans="1:27" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -573,14 +581,14 @@
     <row r="2" spans="1:27" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="12" t="s">
-        <v>16</v>
+      <c r="C2" s="13" t="s">
+        <v>12</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -677,19 +685,19 @@
       <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
+      <c r="E5" s="15">
+        <v>42889</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>10</v>
+      <c r="F5" s="15">
+        <v>42889</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="16">
         <v>2</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="16">
         <v>2</v>
       </c>
       <c r="I5" s="1"/>
@@ -718,21 +726,19 @@
       <c r="C6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>10</v>
+      <c r="E6" s="9">
+        <v>42889</v>
+      </c>
+      <c r="F6" s="9">
+        <v>42950</v>
       </c>
       <c r="G6" s="10">
-        <v>2</v>
+        <v>20</v>
       </c>
-      <c r="H6" s="10">
-        <v>2</v>
-      </c>
+      <c r="H6" s="10"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -759,14 +765,14 @@
       <c r="C7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>12</v>
+      <c r="E7" s="9">
+        <v>42919</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>12</v>
+      <c r="F7" s="9">
+        <v>42919</v>
       </c>
       <c r="G7" s="10">
         <v>2</v>
@@ -800,20 +806,20 @@
       <c r="C8" s="7">
         <v>4</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>13</v>
+      <c r="D8" s="11" t="s">
+        <v>11</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>12</v>
+      <c r="E8" s="9">
+        <v>42919</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>12</v>
+      <c r="F8" s="9">
+        <v>42981</v>
       </c>
       <c r="G8" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H8" s="10">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -841,17 +847,17 @@
       <c r="C9" s="7">
         <v>5</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>14</v>
+      <c r="D9" s="11" t="s">
+        <v>8</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>12</v>
+      <c r="E9" s="9">
+        <v>43011</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>12</v>
+      <c r="F9" s="9">
+        <v>43011</v>
       </c>
       <c r="G9" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="10">
         <v>3</v>
@@ -879,24 +885,12 @@
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="7">
-        <v>6</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="10">
-        <v>2</v>
-      </c>
-      <c r="H10" s="10">
-        <v>4</v>
-      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
